--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43081,6 +43081,41 @@
         <v>328000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43116,6 +43116,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43151,6 +43151,43 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43188,6 +43188,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43223,6 +43223,43 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43260,6 +43260,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43295,6 +43295,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43330,6 +43330,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43365,6 +43365,41 @@
         <v>10800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>422600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43400,6 +43400,41 @@
         <v>422600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>83100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43435,6 +43435,41 @@
         <v>83100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>102900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43470,6 +43470,41 @@
         <v>102900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>76000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43505,6 +43505,76 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>88900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>340600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43575,6 +43575,76 @@
         <v>340600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>414600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>175800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43645,6 +43645,41 @@
         <v>175800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>640000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43680,6 +43680,41 @@
         <v>640000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>8043300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43715,6 +43715,41 @@
         <v>8043300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>6645700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43750,6 +43750,41 @@
         <v>6645700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1133300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43785,6 +43785,76 @@
         <v>1133300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>778300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>6203500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43855,6 +43855,41 @@
         <v>6203500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43890,6 +43890,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1034000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1494"/>
+  <dimension ref="A1:I1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52780,6 +52780,41 @@
         <v>1034000</v>
       </c>
     </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1495" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>3832100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1495"/>
+  <dimension ref="A1:I1496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52815,6 +52815,41 @@
         <v>3832100</v>
       </c>
     </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1496" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>580100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1496"/>
+  <dimension ref="A1:I1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52850,6 +52850,41 @@
         <v>580100</v>
       </c>
     </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1497" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>1400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1497"/>
+  <dimension ref="A1:I1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52885,6 +52885,41 @@
         <v>1400000</v>
       </c>
     </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1498" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>924100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1498"/>
+  <dimension ref="A1:I1499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52920,6 +52920,41 @@
         <v>924100</v>
       </c>
     </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1499" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>4005200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1499"/>
+  <dimension ref="A1:I1500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52955,6 +52955,41 @@
         <v>4005200</v>
       </c>
     </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1500" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>209200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1500"/>
+  <dimension ref="A1:I1501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52990,6 +52990,41 @@
         <v>209200</v>
       </c>
     </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1501" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>768600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1501"/>
+  <dimension ref="A1:I1502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53025,6 +53025,41 @@
         <v>768600</v>
       </c>
     </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1502" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>689200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1502"/>
+  <dimension ref="A1:I1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53060,6 +53060,41 @@
         <v>689200</v>
       </c>
     </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1503" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1503"/>
+  <dimension ref="A1:I1504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53095,6 +53095,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1504" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>409000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1504"/>
+  <dimension ref="A1:I1505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53130,6 +53130,43 @@
         <v>409000</v>
       </c>
     </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1505" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1505"/>
+  <dimension ref="A1:I1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53167,6 +53167,43 @@
         </is>
       </c>
     </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1506" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1506"/>
+  <dimension ref="A1:I1507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53204,6 +53204,41 @@
         </is>
       </c>
     </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1507" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>885000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1507"/>
+  <dimension ref="A1:I1508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53239,6 +53239,41 @@
         <v>885000</v>
       </c>
     </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1508" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>359000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1508"/>
+  <dimension ref="A1:I1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53274,6 +53274,41 @@
         <v>359000</v>
       </c>
     </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1509" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>638100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1509"/>
+  <dimension ref="A1:I1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53309,6 +53309,41 @@
         <v>638100</v>
       </c>
     </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1510" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1510"/>
+  <dimension ref="A1:I1511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53344,6 +53344,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1511" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>182000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1511"/>
+  <dimension ref="A1:I1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53379,6 +53379,41 @@
         <v>182000</v>
       </c>
     </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1512" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>409000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1512"/>
+  <dimension ref="A1:I1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53414,6 +53414,41 @@
         <v>409000</v>
       </c>
     </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1513" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>4028600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1513"/>
+  <dimension ref="A1:I1514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53449,6 +53449,41 @@
         <v>4028600</v>
       </c>
     </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1514" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>865100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1514"/>
+  <dimension ref="A1:I1515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53484,6 +53484,41 @@
         <v>865100</v>
       </c>
     </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1515" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>365100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1515"/>
+  <dimension ref="A1:I1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53519,6 +53519,41 @@
         <v>365100</v>
       </c>
     </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1516" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>479600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1516"/>
+  <dimension ref="A1:I1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53554,6 +53554,41 @@
         <v>479600</v>
       </c>
     </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1517" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1256900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1517"/>
+  <dimension ref="A1:I1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53589,6 +53589,41 @@
         <v>1256900</v>
       </c>
     </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1518" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>2507100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1518"/>
+  <dimension ref="A1:I1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53624,6 +53624,41 @@
         <v>2507100</v>
       </c>
     </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1519" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>5867800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1519"/>
+  <dimension ref="A1:I1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53659,6 +53659,76 @@
         <v>5867800</v>
       </c>
     </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1520" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>1149400</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1521" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>1128200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1521"/>
+  <dimension ref="A1:I1522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53729,6 +53729,41 @@
         <v>1128200</v>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>665100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1522"/>
+  <dimension ref="A1:I1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53764,6 +53764,111 @@
         <v>665100</v>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2237000</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>925400</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>31346000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1525"/>
+  <dimension ref="A1:I1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53869,6 +53869,41 @@
         <v>31346000</v>
       </c>
     </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>13765800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1526"/>
+  <dimension ref="A1:I1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53904,6 +53904,41 @@
         <v>13765800</v>
       </c>
     </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1527" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>4396900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0161.xlsx
+++ b/data/0161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1527"/>
+  <dimension ref="A1:I1530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53939,6 +53939,111 @@
         <v>4396900</v>
       </c>
     </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1528" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>3462000</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1529" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>21379700</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
+      <c r="E1530" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>51472000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
